--- a/Transitions.xlsx
+++ b/Transitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\Proyectos\8vo\TC3002B_Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4533B5B5-29A5-4C00-91E9-9DA293AA0E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{688AA7AA-BD07-4535-B148-A30C1E8D5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B158C7EA-0D1B-4D7A-B6B3-93370AB3C5AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8BAEB8F-46F8-4565-B617-1B74684AEC82}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,10 @@
     <t>equal_op</t>
   </si>
   <si>
+    <t>inc_kwd</t>
+  </si>
+  <si>
     <t>dec_kwd</t>
-  </si>
-  <si>
-    <t>inc_kwd</t>
   </si>
   <si>
     <t>if_kwd</t>
@@ -3340,11 +3340,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02EC81D-CB53-4E9B-ABBA-208CCDE8BC9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315E925E-B9AB-406F-BA8F-B3AA1E890C41}">
   <dimension ref="A1:CI152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Transitions.xlsx
+++ b/Transitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\Proyectos\8vo\TC3002B_Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD98626D-3626-4DDC-966A-D75150FD75AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6616186-BC71-47EC-A19D-A976177EC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8BAEB8F-46F8-4565-B617-1B74684AEC82}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="253">
   <si>
     <t>var_kwd</t>
   </si>
@@ -2767,21 +2768,6 @@
   </si>
   <si>
     <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>143</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>r</t>
     </r>
     <r>
@@ -2843,6 +2829,9 @@
     </r>
   </si>
   <si>
+    <t>comma_op</t>
+  </si>
+  <si>
     <r>
       <t>s</t>
     </r>
@@ -2854,7 +2843,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>148</t>
+      <t>138</t>
     </r>
   </si>
   <si>
@@ -2869,34 +2858,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>150</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
+      <t>145</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
         <sz val="10"/>
-        <color rgb="FF008000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>40</t>
-    </r>
-  </si>
-  <si>
-    <t>comma_op</t>
+      <t>149</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2941,14 +2926,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2985,7 +2962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2997,9 +2974,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3336,10 +3310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315E925E-B9AB-406F-BA8F-B3AA1E890C41}">
-  <dimension ref="A1:CH152"/>
+  <dimension ref="A1:CH151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4092,7 +4066,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -18248,7 +18222,7 @@
         <v>238</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="N137" s="3" t="s">
         <v>240</v>
@@ -18309,9 +18283,7 @@
       <c r="BH137" s="3"/>
       <c r="BI137" s="3"/>
       <c r="BJ137" s="3"/>
-      <c r="BK137" s="2">
-        <v>138</v>
-      </c>
+      <c r="BK137" s="3"/>
       <c r="BL137" s="2">
         <v>137</v>
       </c>
@@ -18341,7 +18313,7 @@
     <row r="138" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -18538,47 +18510,25 @@
     </row>
     <row r="140" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="B140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="H140" s="3"/>
       <c r="I140" s="3"/>
-      <c r="J140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="M140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="N140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="O140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="P140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="R140" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
@@ -18740,25 +18690,43 @@
     </row>
     <row r="142" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="B142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
+      <c r="H142" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
+      <c r="J142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
-      <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
+      <c r="O142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="P142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="R142" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
@@ -18830,43 +18798,27 @@
     </row>
     <row r="143" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-      <c r="B143" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="B143" s="3"/>
       <c r="C143" s="3" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="H143" s="3"/>
       <c r="I143" s="3"/>
-      <c r="J143" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
-      <c r="O143" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P143" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q143" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="R143" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
       <c r="U143" s="3"/>
@@ -18876,18 +18828,34 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
-      <c r="AB143" s="3"/>
-      <c r="AC143" s="3"/>
+      <c r="AB143" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC143" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="AD143" s="3"/>
       <c r="AE143" s="3"/>
       <c r="AF143" s="3"/>
-      <c r="AG143" s="3"/>
-      <c r="AH143" s="3"/>
+      <c r="AG143" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH143" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="AI143" s="3"/>
-      <c r="AJ143" s="3"/>
-      <c r="AK143" s="3"/>
-      <c r="AL143" s="3"/>
-      <c r="AM143" s="3"/>
+      <c r="AJ143" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK143" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL143" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM143" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="AN143" s="3"/>
       <c r="AO143" s="3"/>
       <c r="AP143" s="3"/>
@@ -18906,7 +18874,9 @@
       <c r="BC143" s="3"/>
       <c r="BD143" s="3"/>
       <c r="BE143" s="3"/>
-      <c r="BF143" s="3"/>
+      <c r="BF143" s="2">
+        <v>69</v>
+      </c>
       <c r="BG143" s="3"/>
       <c r="BH143" s="3"/>
       <c r="BI143" s="3"/>
@@ -18918,23 +18888,47 @@
       <c r="BO143" s="3"/>
       <c r="BP143" s="3"/>
       <c r="BQ143" s="3"/>
-      <c r="BR143" s="3"/>
-      <c r="BS143" s="3"/>
+      <c r="BR143" s="2">
+        <v>143</v>
+      </c>
+      <c r="BS143" s="2">
+        <v>56</v>
+      </c>
       <c r="BT143" s="3"/>
-      <c r="BU143" s="3"/>
-      <c r="BV143" s="3"/>
+      <c r="BU143" s="2">
+        <v>57</v>
+      </c>
+      <c r="BV143" s="2">
+        <v>58</v>
+      </c>
       <c r="BW143" s="3"/>
-      <c r="BX143" s="3"/>
+      <c r="BX143" s="2">
+        <v>59</v>
+      </c>
       <c r="BY143" s="3"/>
-      <c r="BZ143" s="3"/>
+      <c r="BZ143" s="2">
+        <v>60</v>
+      </c>
       <c r="CA143" s="3"/>
-      <c r="CB143" s="3"/>
+      <c r="CB143" s="2">
+        <v>61</v>
+      </c>
       <c r="CC143" s="3"/>
-      <c r="CD143" s="3"/>
-      <c r="CE143" s="3"/>
-      <c r="CF143" s="3"/>
-      <c r="CG143" s="3"/>
-      <c r="CH143" s="3"/>
+      <c r="CD143" s="2">
+        <v>62</v>
+      </c>
+      <c r="CE143" s="2">
+        <v>63</v>
+      </c>
+      <c r="CF143" s="2">
+        <v>64</v>
+      </c>
+      <c r="CG143" s="2">
+        <v>70</v>
+      </c>
+      <c r="CH143" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="144" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
@@ -19049,14 +19043,12 @@
     <row r="145" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -19078,34 +19070,18 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
-      <c r="AB145" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC145" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="AB145" s="3"/>
+      <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
       <c r="AE145" s="3"/>
       <c r="AF145" s="3"/>
-      <c r="AG145" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH145" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="AG145" s="3"/>
+      <c r="AH145" s="3"/>
       <c r="AI145" s="3"/>
-      <c r="AJ145" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK145" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL145" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM145" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="AJ145" s="3"/>
+      <c r="AK145" s="3"/>
+      <c r="AL145" s="3"/>
+      <c r="AM145" s="3"/>
       <c r="AN145" s="3"/>
       <c r="AO145" s="3"/>
       <c r="AP145" s="3"/>
@@ -19124,9 +19100,7 @@
       <c r="BC145" s="3"/>
       <c r="BD145" s="3"/>
       <c r="BE145" s="3"/>
-      <c r="BF145" s="2">
-        <v>69</v>
-      </c>
+      <c r="BF145" s="3"/>
       <c r="BG145" s="3"/>
       <c r="BH145" s="3"/>
       <c r="BI145" s="3"/>
@@ -19138,47 +19112,23 @@
       <c r="BO145" s="3"/>
       <c r="BP145" s="3"/>
       <c r="BQ145" s="3"/>
-      <c r="BR145" s="2">
-        <v>145</v>
-      </c>
-      <c r="BS145" s="2">
-        <v>56</v>
-      </c>
+      <c r="BR145" s="3"/>
+      <c r="BS145" s="3"/>
       <c r="BT145" s="3"/>
-      <c r="BU145" s="2">
-        <v>57</v>
-      </c>
-      <c r="BV145" s="2">
-        <v>58</v>
-      </c>
+      <c r="BU145" s="3"/>
+      <c r="BV145" s="3"/>
       <c r="BW145" s="3"/>
-      <c r="BX145" s="2">
-        <v>59</v>
-      </c>
+      <c r="BX145" s="3"/>
       <c r="BY145" s="3"/>
-      <c r="BZ145" s="2">
-        <v>60</v>
-      </c>
+      <c r="BZ145" s="3"/>
       <c r="CA145" s="3"/>
-      <c r="CB145" s="2">
-        <v>61</v>
-      </c>
+      <c r="CB145" s="3"/>
       <c r="CC145" s="3"/>
-      <c r="CD145" s="2">
-        <v>62</v>
-      </c>
-      <c r="CE145" s="2">
-        <v>63</v>
-      </c>
-      <c r="CF145" s="2">
-        <v>64</v>
-      </c>
-      <c r="CG145" s="2">
-        <v>70</v>
-      </c>
-      <c r="CH145" s="2">
-        <v>71</v>
-      </c>
+      <c r="CD145" s="3"/>
+      <c r="CE145" s="3"/>
+      <c r="CF145" s="3"/>
+      <c r="CG145" s="3"/>
+      <c r="CH145" s="3"/>
     </row>
     <row r="146" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
@@ -19193,7 +19143,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3" t="s">
@@ -19318,10 +19268,10 @@
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -19405,41 +19355,41 @@
     <row r="148" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R148" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
@@ -19512,25 +19462,43 @@
     </row>
     <row r="149" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="B149" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
-      <c r="G149" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
+      <c r="J149" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-      <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
+      <c r="O149" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P149" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q149" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R149" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
       <c r="U149" s="3"/>
@@ -19564,7 +19532,9 @@
       <c r="AW149" s="3"/>
       <c r="AX149" s="3"/>
       <c r="AY149" s="3"/>
-      <c r="AZ149" s="3"/>
+      <c r="AZ149" s="2">
+        <v>148</v>
+      </c>
       <c r="BA149" s="3"/>
       <c r="BB149" s="3"/>
       <c r="BC149" s="3"/>
@@ -19603,41 +19573,41 @@
     <row r="150" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="R150" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
@@ -19672,26 +19642,48 @@
       <c r="AW150" s="3"/>
       <c r="AX150" s="3"/>
       <c r="AY150" s="3"/>
-      <c r="AZ150" s="2">
-        <v>149</v>
-      </c>
-      <c r="BA150" s="3"/>
-      <c r="BB150" s="3"/>
-      <c r="BC150" s="3"/>
-      <c r="BD150" s="3"/>
-      <c r="BE150" s="3"/>
-      <c r="BF150" s="3"/>
+      <c r="AZ150" s="3"/>
+      <c r="BA150" s="2">
+        <v>25</v>
+      </c>
+      <c r="BB150" s="2">
+        <v>26</v>
+      </c>
+      <c r="BC150" s="2">
+        <v>27</v>
+      </c>
+      <c r="BD150" s="2">
+        <v>28</v>
+      </c>
+      <c r="BE150" s="2">
+        <v>29</v>
+      </c>
+      <c r="BF150" s="2">
+        <v>39</v>
+      </c>
       <c r="BG150" s="3"/>
       <c r="BH150" s="3"/>
-      <c r="BI150" s="3"/>
+      <c r="BI150" s="2">
+        <v>30</v>
+      </c>
       <c r="BJ150" s="3"/>
       <c r="BK150" s="3"/>
       <c r="BL150" s="3"/>
-      <c r="BM150" s="3"/>
-      <c r="BN150" s="3"/>
-      <c r="BO150" s="3"/>
-      <c r="BP150" s="3"/>
-      <c r="BQ150" s="3"/>
+      <c r="BM150" s="2">
+        <v>31</v>
+      </c>
+      <c r="BN150" s="2">
+        <v>32</v>
+      </c>
+      <c r="BO150" s="2">
+        <v>33</v>
+      </c>
+      <c r="BP150" s="2">
+        <v>34</v>
+      </c>
+      <c r="BQ150" s="2">
+        <v>35</v>
+      </c>
       <c r="BR150" s="3"/>
       <c r="BS150" s="3"/>
       <c r="BT150" s="3"/>
@@ -19713,41 +19705,45 @@
     <row r="151" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M151" s="3"/>
-      <c r="N151" s="3"/>
+        <v>243</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="O151" s="3" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="R151" s="3" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
@@ -19783,47 +19779,23 @@
       <c r="AX151" s="3"/>
       <c r="AY151" s="3"/>
       <c r="AZ151" s="3"/>
-      <c r="BA151" s="2">
-        <v>25</v>
-      </c>
-      <c r="BB151" s="2">
-        <v>26</v>
-      </c>
-      <c r="BC151" s="2">
-        <v>27</v>
-      </c>
-      <c r="BD151" s="2">
-        <v>28</v>
-      </c>
-      <c r="BE151" s="2">
-        <v>29</v>
-      </c>
-      <c r="BF151" s="2">
-        <v>39</v>
-      </c>
+      <c r="BA151" s="3"/>
+      <c r="BB151" s="3"/>
+      <c r="BC151" s="3"/>
+      <c r="BD151" s="3"/>
+      <c r="BE151" s="3"/>
+      <c r="BF151" s="3"/>
       <c r="BG151" s="3"/>
       <c r="BH151" s="3"/>
-      <c r="BI151" s="2">
-        <v>30</v>
-      </c>
+      <c r="BI151" s="3"/>
       <c r="BJ151" s="3"/>
       <c r="BK151" s="3"/>
       <c r="BL151" s="3"/>
-      <c r="BM151" s="2">
-        <v>31</v>
-      </c>
-      <c r="BN151" s="2">
-        <v>32</v>
-      </c>
-      <c r="BO151" s="2">
-        <v>33</v>
-      </c>
-      <c r="BP151" s="2">
-        <v>34</v>
-      </c>
-      <c r="BQ151" s="2">
-        <v>35</v>
-      </c>
+      <c r="BM151" s="3"/>
+      <c r="BN151" s="3"/>
+      <c r="BO151" s="3"/>
+      <c r="BP151" s="3"/>
+      <c r="BQ151" s="3"/>
       <c r="BR151" s="3"/>
       <c r="BS151" s="3"/>
       <c r="BT151" s="3"/>
@@ -19842,118 +19814,6 @@
       <c r="CG151" s="3"/>
       <c r="CH151" s="3"/>
     </row>
-    <row r="152" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="M152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="N152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="O152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="P152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="R152" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="S152" s="3"/>
-      <c r="T152" s="3"/>
-      <c r="U152" s="3"/>
-      <c r="V152" s="3"/>
-      <c r="W152" s="3"/>
-      <c r="X152" s="3"/>
-      <c r="Y152" s="3"/>
-      <c r="Z152" s="3"/>
-      <c r="AA152" s="3"/>
-      <c r="AB152" s="3"/>
-      <c r="AC152" s="3"/>
-      <c r="AD152" s="3"/>
-      <c r="AE152" s="3"/>
-      <c r="AF152" s="3"/>
-      <c r="AG152" s="3"/>
-      <c r="AH152" s="3"/>
-      <c r="AI152" s="3"/>
-      <c r="AJ152" s="3"/>
-      <c r="AK152" s="3"/>
-      <c r="AL152" s="3"/>
-      <c r="AM152" s="3"/>
-      <c r="AN152" s="3"/>
-      <c r="AO152" s="3"/>
-      <c r="AP152" s="3"/>
-      <c r="AQ152" s="3"/>
-      <c r="AR152" s="3"/>
-      <c r="AS152" s="3"/>
-      <c r="AT152" s="3"/>
-      <c r="AU152" s="3"/>
-      <c r="AV152" s="3"/>
-      <c r="AW152" s="3"/>
-      <c r="AX152" s="3"/>
-      <c r="AY152" s="3"/>
-      <c r="AZ152" s="3"/>
-      <c r="BA152" s="3"/>
-      <c r="BB152" s="3"/>
-      <c r="BC152" s="3"/>
-      <c r="BD152" s="3"/>
-      <c r="BE152" s="3"/>
-      <c r="BF152" s="3"/>
-      <c r="BG152" s="3"/>
-      <c r="BH152" s="3"/>
-      <c r="BI152" s="3"/>
-      <c r="BJ152" s="3"/>
-      <c r="BK152" s="3"/>
-      <c r="BL152" s="3"/>
-      <c r="BM152" s="3"/>
-      <c r="BN152" s="3"/>
-      <c r="BO152" s="3"/>
-      <c r="BP152" s="3"/>
-      <c r="BQ152" s="3"/>
-      <c r="BR152" s="3"/>
-      <c r="BS152" s="3"/>
-      <c r="BT152" s="3"/>
-      <c r="BU152" s="3"/>
-      <c r="BV152" s="3"/>
-      <c r="BW152" s="3"/>
-      <c r="BX152" s="3"/>
-      <c r="BY152" s="3"/>
-      <c r="BZ152" s="3"/>
-      <c r="CA152" s="3"/>
-      <c r="CB152" s="3"/>
-      <c r="CC152" s="3"/>
-      <c r="CD152" s="3"/>
-      <c r="CE152" s="3"/>
-      <c r="CF152" s="3"/>
-      <c r="CG152" s="3"/>
-      <c r="CH152" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transitions.xlsx
+++ b/Transitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\Proyectos\8vo\TC3002B_Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6616186-BC71-47EC-A19D-A976177EC871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3455A-6FE2-47AB-96F0-671F9CBE7BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8BAEB8F-46F8-4565-B617-1B74684AEC82}"/>
   </bookViews>
@@ -2829,7 +2829,7 @@
     </r>
   </si>
   <si>
-    <t>comma_op</t>
+    <t>coma_op</t>
   </si>
   <si>
     <r>
@@ -3313,7 +3313,7 @@
   <dimension ref="A1:CH151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
